--- a/Documentation/MEETING NOTES.xlsx
+++ b/Documentation/MEETING NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vives\Fase 1\Semester 2\EduGame 1\EducationalGame1\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B3046F-946C-4AE3-8B1E-DE2EF1565012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC4FF44-CDA9-48AC-8514-B3021049BBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>CLICK HERE TO CREATE IN SMARTSHEET</t>
   </si>
@@ -113,6 +113,42 @@
   </si>
   <si>
     <t>to end</t>
+  </si>
+  <si>
+    <t>Maken (Xander)</t>
+  </si>
+  <si>
+    <t>Pixelart 32bit chiptune</t>
+  </si>
+  <si>
+    <t>Integration through passwords</t>
+  </si>
+  <si>
+    <t>Assigned to Esteban</t>
+  </si>
+  <si>
+    <t>Create UML</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>Make Art Assets</t>
+  </si>
+  <si>
+    <t>Xander</t>
+  </si>
+  <si>
+    <t>Make Architecture Doc</t>
+  </si>
+  <si>
+    <t>Olivier</t>
+  </si>
+  <si>
+    <t>Interview Spellenlab</t>
+  </si>
+  <si>
+    <t>Create WBS</t>
   </si>
 </sst>
 </file>
@@ -489,11 +525,32 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,27 +563,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -967,26 +1003,26 @@
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="2:119" ht="24.95" customHeight="1" thickBot="1">
       <c r="B4" s="11"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="2:119" ht="18" customHeight="1">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="19" t="s">
         <v>4</v>
       </c>
@@ -995,66 +1031,66 @@
       </c>
     </row>
     <row r="6" spans="2:119" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:119" ht="18" customHeight="1">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="34"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:119" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="2:119" ht="18" customHeight="1">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="2:119" ht="24.95" customHeight="1">
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="2:119" ht="24.95" customHeight="1">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="2:119" ht="24.95" customHeight="1">
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="2:119" ht="24.95" customHeight="1" thickBot="1">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="2:119" ht="9.9499999999999993" customHeight="1">
       <c r="B14" s="6"/>
@@ -1073,10 +1109,10 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:119" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="15" t="s">
         <v>13</v>
       </c>
@@ -1088,80 +1124,80 @@
       </c>
     </row>
     <row r="17" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="12"/>
       <c r="E17" s="18"/>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="12"/>
       <c r="E18" s="18"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="12"/>
       <c r="E19" s="18"/>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="2:6" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="12"/>
       <c r="E20" s="18"/>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="12"/>
       <c r="E21" s="18"/>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="12"/>
       <c r="E22" s="18"/>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="12"/>
       <c r="E23" s="18"/>
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="12"/>
       <c r="E24" s="18"/>
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="12"/>
       <c r="E25" s="18"/>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="2:6" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="12"/>
       <c r="E26" s="18"/>
       <c r="F26" s="17"/>
     </row>
     <row r="27" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="15" t="s">
         <v>15</v>
       </c>
@@ -1173,103 +1209,104 @@
       </c>
     </row>
     <row r="28" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="12"/>
       <c r="E28" s="18"/>
       <c r="F28" s="17"/>
     </row>
     <row r="29" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="12"/>
       <c r="E29" s="18"/>
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="12"/>
       <c r="E30" s="18"/>
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="12"/>
       <c r="E31" s="18"/>
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="12"/>
       <c r="E32" s="18"/>
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="12"/>
       <c r="E33" s="18"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="12"/>
       <c r="E34" s="18"/>
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="12"/>
       <c r="E35" s="18"/>
       <c r="F35" s="17"/>
     </row>
     <row r="36" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="12"/>
       <c r="E36" s="18"/>
       <c r="F36" s="17"/>
     </row>
     <row r="37" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="12"/>
       <c r="E37" s="18"/>
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="2:6" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="12"/>
       <c r="E38" s="18"/>
       <c r="F38" s="17"/>
     </row>
     <row r="40" spans="2:6" s="5" customFormat="1" ht="50.25" customHeight="1">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B16:C16"/>
@@ -1286,17 +1323,16 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1316,8 +1352,8 @@
   <dimension ref="B1:DO40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1457,26 +1493,26 @@
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="2:119" ht="24.95" customHeight="1" thickBot="1">
       <c r="B4" s="11"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="2:119" ht="18" customHeight="1">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="19" t="s">
         <v>4</v>
       </c>
@@ -1485,66 +1521,66 @@
       </c>
     </row>
     <row r="6" spans="2:119" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:119" ht="18" customHeight="1">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="34"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:119" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="2:119" ht="18" customHeight="1">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="2:119" ht="24.95" customHeight="1">
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="2:119" ht="24.95" customHeight="1">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="2:119" ht="24.95" customHeight="1">
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="2:119" ht="24.95" customHeight="1" thickBot="1">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="2:119" ht="9.9499999999999993" customHeight="1">
       <c r="B14" s="6"/>
@@ -1563,10 +1599,10 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:119" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="15" t="s">
         <v>13</v>
       </c>
@@ -1578,90 +1614,98 @@
       </c>
     </row>
     <row r="17" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="12"/>
       <c r="E17" s="18"/>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="E18" s="18"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="2:6" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="12"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="E20" s="18"/>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="12"/>
       <c r="E21" s="18"/>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="12"/>
       <c r="E22" s="18"/>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="12"/>
       <c r="E23" s="18"/>
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="12"/>
       <c r="E24" s="18"/>
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="E25" s="18"/>
       <c r="F25" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:6" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="12"/>
       <c r="E26" s="18"/>
       <c r="F26" s="17"/>
     </row>
     <row r="27" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="15" t="s">
         <v>15</v>
       </c>
@@ -1673,93 +1717,136 @@
       </c>
     </row>
     <row r="28" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="30"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="18"/>
+      <c r="E28" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F28" s="17"/>
     </row>
     <row r="29" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="30"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="18"/>
+      <c r="E29" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="30"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="18"/>
+      <c r="E30" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="30"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="18"/>
+      <c r="E31" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="30"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="18"/>
+      <c r="E32" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="12"/>
       <c r="E33" s="18"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="12"/>
       <c r="E34" s="18"/>
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="12"/>
       <c r="E35" s="18"/>
       <c r="F35" s="17"/>
     </row>
     <row r="36" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="12"/>
       <c r="E36" s="18"/>
       <c r="F36" s="17"/>
     </row>
     <row r="37" spans="2:6" s="9" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="12"/>
       <c r="E37" s="18"/>
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="2:6" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="12"/>
       <c r="E38" s="18"/>
       <c r="F38" s="17"/>
     </row>
     <row r="40" spans="2:6" s="5" customFormat="1" ht="50.25" customHeight="1">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B33:C33"/>
@@ -1774,29 +1861,6 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B40:F40" r:id="rId1" display="CLICK HERE TO CREATE IN SMARTSHEET" xr:uid="{F85CC436-F694-435F-AE9D-8A101E5143AE}"/>
